--- a/Lottodata/Probs_EN.xlsx
+++ b/Lottodata/Probs_EN.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neuwirth/SalzburgLV/Lottodata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AE3BAAC-BBCB-1349-AAA4-746A327A698B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111D00A6-CB78-1B42-8867-ABA7E51F74BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" xr2:uid="{9B311F42-0F31-0044-B1E7-F45D9A8D4735}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,33 +46,6 @@
     <t>gelb</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Sechser</t>
-  </si>
-  <si>
-    <t>FünferMit</t>
-  </si>
-  <si>
-    <t>FünferOhne</t>
-  </si>
-  <si>
-    <t>ViererMit</t>
-  </si>
-  <si>
-    <t>ViererOhne</t>
-  </si>
-  <si>
-    <t>DreierMit</t>
-  </si>
-  <si>
-    <t>DreierOhne</t>
-  </si>
-  <si>
-    <t>ZZAllein</t>
-  </si>
-  <si>
     <t>grc</t>
   </si>
   <si>
@@ -86,6 +59,33 @@
   </si>
   <si>
     <t>probxl</t>
+  </si>
+  <si>
+    <t>5M</t>
+  </si>
+  <si>
+    <t>5O</t>
+  </si>
+  <si>
+    <t>4M</t>
+  </si>
+  <si>
+    <t>4O</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>3O</t>
+  </si>
+  <si>
+    <t>ZZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6</t>
+  </si>
+  <si>
+    <t>Rang_Nr</t>
   </si>
 </sst>
 </file>
@@ -121,8 +121,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67FDAB42-DC72-9749-9B40-EAEAF4F56149}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="195" zoomScaleNormal="195" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="195" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -450,10 +451,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -465,27 +466,27 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -522,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -559,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -596,7 +597,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -634,7 +635,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -672,7 +673,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -710,7 +711,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -748,7 +749,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>0</v>
